--- a/設計書/コード進行によるベースライン生成_設計書.xlsx
+++ b/設計書/コード進行によるベースライン生成_設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aki/Documents/GitHub/bass_rythmLearning/設計書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\bass_rythmLearning\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E84953F-FCA8-4E44-ABC7-317084BB06EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E906A4D-15B2-4EAB-B7E1-8BBD055FA205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{8BF75C78-4A52-BF41-B73F-0BDA43EAA54D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{8BF75C78-4A52-BF41-B73F-0BDA43EAA54D}"/>
   </bookViews>
   <sheets>
     <sheet name="コード進行によるベースライン生成_設計書一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -89,12 +89,75 @@
     <t>コード進行によるベースライン生成_01ランダム生成</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>画面表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隠れマルコフモデルを利用し音価を確率で生成する</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オンカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能設計</t>
+    <rPh sb="0" eb="4">
+      <t>キノウセッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音価の生成</t>
+    <rPh sb="0" eb="1">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音価列は、各音価のひとつ前の音価の終了位置（次の音価の始まる位置）を隠れ状態にすることで、隠れマルコフモデルよって生成することができる。生成される音価列の確率は、各音価が小節内における終了位置（endtime）によって、以下で示すように決定される。</t>
+    <rPh sb="110" eb="112">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(式)</t>
+    <rPh sb="1" eb="2">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,6 +204,21 @@
       <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -191,14 +269,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -210,17 +285,32 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -238,6 +328,2132 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>116415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>846667</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>211665</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6E9ABD8-821B-81E0-08C0-417E0E361DA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190501" y="1855763"/>
+          <a:ext cx="5625731" cy="4567859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>194735</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>120648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>677335</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94AAB39A-C1C2-4D28-A790-49C60E81A23F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="194735" y="1824565"/>
+          <a:ext cx="1477433" cy="270934"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>音符自動生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>724822</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85217</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>124239</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{665DB2E9-550D-4B3D-9752-1F55B96E6AFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3706561" y="5551739"/>
+          <a:ext cx="1387243" cy="295783"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>音符自動生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>173936</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>122397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>830102</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>217647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2D5CEB9-4859-477B-9719-E617E9361D7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6137414" y="1861745"/>
+          <a:ext cx="5625731" cy="4567859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>167468</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>650068</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>150525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DBF447F-C24F-4C1A-9429-AF45EEDF7983}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6139322" y="1846069"/>
+          <a:ext cx="1477909" cy="273669"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>再生</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>372719</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>89266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>583658</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>73935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FD95F90-1649-4AF6-809C-6EC1A10FDB81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6336197" y="2574049"/>
+          <a:ext cx="5180504" cy="1227060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>306458</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>770284</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="二等辺三角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B675163-A700-AC25-9EE0-6B3D9877A063}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7214153" y="5358848"/>
+          <a:ext cx="563218" cy="463826"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>911088</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>24849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>919371</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>33132</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{604B122D-1929-315D-243A-70A7D6D20A65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7868479" y="3006588"/>
+          <a:ext cx="8283" cy="1250674"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>265044</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>173935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>737153</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A763F956-4C20-A765-0E70-95466985DC0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10204174" y="5391978"/>
+          <a:ext cx="472109" cy="472109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>447260</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>281608</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA33EA04-A731-1A58-A933-CF29DDA33D96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447260" y="2567609"/>
+          <a:ext cx="828261" cy="356152"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１小節目</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>773595</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>94422</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>607943</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>202096</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A1121CB-04D8-4D9E-AE71-774F14B4089F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1767508" y="2579205"/>
+          <a:ext cx="828261" cy="356152"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>小節目</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>321365</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>97735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>155713</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>205409</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{805E9B4A-F7C9-4ACD-865E-B6D0530AEEC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3303104" y="2582518"/>
+          <a:ext cx="828261" cy="356152"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>小節目</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>730526</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>109330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>564874</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>217004</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{261777D4-3BC8-4D61-94D8-189753E54330}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4706178" y="2594113"/>
+          <a:ext cx="828261" cy="356152"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>小節目</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>447261</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>82828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>298175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="24" name="グループ化 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF857E01-0B40-1E13-8A23-76DDE047C8EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="447261" y="3036648"/>
+          <a:ext cx="846223" cy="901781"/>
+          <a:chOff x="447261" y="3064567"/>
+          <a:chExt cx="844827" cy="911087"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="正方形/長方形 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB1D858E-C624-7F50-6392-D875AE2E8F90}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447261" y="3064567"/>
+            <a:ext cx="844826" cy="911085"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Gmaj7</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="二等辺三角形 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AA93947-3BA2-4D99-D97B-5F09F306D799}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="1126434" y="3843129"/>
+            <a:ext cx="149087" cy="115957"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="正方形/長方形 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8003000-C09A-CB7C-5406-4D2A71DE4466}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1101587" y="3801718"/>
+            <a:ext cx="190501" cy="173936"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>781878</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>86141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>632792</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3315</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="グループ化 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CD46030-0C80-4D9A-B8AE-E19917DEAE59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1777187" y="3039961"/>
+          <a:ext cx="846223" cy="901781"/>
+          <a:chOff x="447261" y="3064567"/>
+          <a:chExt cx="844827" cy="911087"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="正方形/長方形 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27CBD467-E80B-9CF6-CBEC-930D36992704}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447261" y="3064567"/>
+            <a:ext cx="844826" cy="911085"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>D6</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="二等辺三角形 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67EBF938-38E7-8FAE-E93D-BE0AE8889732}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="1126434" y="3843129"/>
+            <a:ext cx="149087" cy="115957"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="正方形/長方形 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FD061D6-73CC-D2A0-5E51-AC7451FCCBC2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1101587" y="3801718"/>
+            <a:ext cx="190501" cy="173936"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>337930</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>188844</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>31476</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="グループ化 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4579D7A5-857C-4084-9AC9-BFE7101B2E03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3323857" y="3068122"/>
+          <a:ext cx="846223" cy="901781"/>
+          <a:chOff x="447261" y="3064567"/>
+          <a:chExt cx="844827" cy="911087"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="正方形/長方形 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A9043D8-D11D-07C5-18E2-75E83F972764}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447261" y="3064567"/>
+            <a:ext cx="844826" cy="911085"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>E-7</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="二等辺三角形 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3946D8E5-2904-2C95-55C3-4EB8462115F3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="1126434" y="3843129"/>
+            <a:ext cx="149087" cy="115957"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="正方形/長方形 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{658FDA24-C6E0-782F-3857-A78C1A2D66CA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1101587" y="3801718"/>
+            <a:ext cx="190501" cy="173936"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>713961</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>564875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76202</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="グループ化 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E308263D-9833-4972-8A06-A272DFCBE48F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4695197" y="3112848"/>
+          <a:ext cx="846223" cy="901781"/>
+          <a:chOff x="447261" y="3064567"/>
+          <a:chExt cx="844827" cy="911087"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="正方形/長方形 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C5F3AC-3C73-F46D-13A7-9EF6B6792467}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447261" y="3064567"/>
+            <a:ext cx="844826" cy="911085"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>E-7</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="二等辺三角形 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1825E71F-E4B8-04B7-E1A6-CC7B98680FB7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="1126434" y="3843129"/>
+            <a:ext cx="149087" cy="115957"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="正方形/長方形 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99AA5C36-2441-97C3-2492-3AE53A8D1FDD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1101587" y="3801718"/>
+            <a:ext cx="190501" cy="173936"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190285</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>179584</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8366778" cy="1008225"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="37" name="テキスト ボックス 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F53765-06F9-C774-F35B-2338FD7E2F6D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3176212" y="7810286"/>
+              <a:ext cx="8366778" cy="1008225"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑃</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡𝑖𝑚𝑒</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="1" baseline="-25000">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡𝑖𝑚𝑒</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="1" baseline="-25000">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>,…,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡𝑖𝑚𝑒𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑃</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡𝑖𝑚𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="1" baseline="-25000">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>1</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∏"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="23"/>
+                          </m:rPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=2</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑃</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑡𝑖𝑚𝑒</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="1" baseline="-25000">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="1" baseline="0">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:d>
+                                  <m:dPr>
+                                    <m:begChr m:val="|"/>
+                                    <m:endChr m:val=""/>
+                                    <m:ctrlPr>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="1" baseline="0">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:dPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="1" baseline="0">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑒𝑛𝑑𝑡𝑖𝑚𝑒</m:t>
+                                    </m:r>
+                                  </m:e>
+                                </m:d>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="1" baseline="0">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="1" baseline="0">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>−1</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:d>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="37" name="テキスト ボックス 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F53765-06F9-C774-F35B-2338FD7E2F6D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3176212" y="7810286"/>
+              <a:ext cx="8366778" cy="1008225"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑃(𝑡𝑖𝑚𝑒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0" baseline="-25000">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>,𝑡𝑖𝑚𝑒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0" baseline="-25000">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>,…,𝑡𝑖𝑚𝑒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0" baseline="-25000">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=𝑃(𝑡𝑖𝑚𝑒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0" baseline="-25000">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)∏24_(𝑖=2)^𝑛▒𝑃(𝑡𝑖𝑚𝑒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0" baseline="-25000">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>|𝑒𝑛𝑑𝑡𝑖𝑚𝑒┤</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑖−1)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0" baseline="-25000">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ) </a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -542,48 +2758,47 @@
   </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L2"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>44839</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -591,87 +2806,89 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="3">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="3">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="A1:L2"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="G6:L6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G7:L7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="A1:L2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -687,49 +2904,49 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="89" zoomScaleNormal="90" zoomScaleSheetLayoutView="89" workbookViewId="0">
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>44839</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -737,12 +2954,412 @@
       </c>
       <c r="L3" s="1"/>
     </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A29" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C31" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:L2"/>
+    <mergeCell ref="A6:L27"/>
+    <mergeCell ref="C31:L32"/>
+    <mergeCell ref="D33:L36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>